--- a/PGN 5.7.xlsx
+++ b/PGN 5.7.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="245">
   <si>
     <t>Src</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>Port 5122</t>
+  </si>
+  <si>
+    <t>** Speed is in m/s * 10</t>
   </si>
 </sst>
 </file>
@@ -1441,6 +1444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1465,7 +1469,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1774,7 +1777,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1788,8 +1791,8 @@
   <dimension ref="B1:AP98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1948,17 +1951,17 @@
       <c r="H3" s="20">
         <v>8</v>
       </c>
-      <c r="I3" s="114" t="s">
+      <c r="I3" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="115"/>
+      <c r="J3" s="116"/>
       <c r="K3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="116" t="s">
+      <c r="L3" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="117"/>
+      <c r="M3" s="118"/>
       <c r="N3" s="1" t="s">
         <v>195</v>
       </c>
@@ -2012,10 +2015,10 @@
       <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="118" t="s">
+      <c r="N5" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="118"/>
+      <c r="O5" s="119"/>
       <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2104,18 +2107,18 @@
       <c r="H9" s="20">
         <v>8</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I9" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="118" t="s">
+      <c r="J9" s="114"/>
+      <c r="K9" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118" t="s">
+      <c r="L9" s="119"/>
+      <c r="M9" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="118"/>
+      <c r="N9" s="119"/>
       <c r="O9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2795,7 +2798,9 @@
         <v>20</v>
       </c>
       <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
+      <c r="U26" s="8" t="s">
+        <v>244</v>
+      </c>
       <c r="V26" s="108"/>
       <c r="W26" s="108"/>
       <c r="X26" s="108"/>
@@ -2915,18 +2920,18 @@
       <c r="H30" s="20">
         <v>8</v>
       </c>
-      <c r="I30" s="112" t="s">
+      <c r="I30" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113" t="s">
+      <c r="J30" s="114"/>
+      <c r="K30" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113" t="s">
+      <c r="L30" s="114"/>
+      <c r="M30" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="N30" s="113"/>
+      <c r="N30" s="114"/>
       <c r="O30" s="20">
         <v>0</v>
       </c>
@@ -3570,12 +3575,12 @@
       <c r="AN51" s="25"/>
     </row>
     <row r="52" spans="2:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="120"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="3"/>
       <c r="E52" s="53"/>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
-      <c r="H52" s="120"/>
+      <c r="H52" s="112"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="111"/>
@@ -5453,12 +5458,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5626,15 +5628,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5658,17 +5671,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F18C333-41DD-4AE5-A5E3-DF6F4E4DF526}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8B9148-C797-4C6B-A280-0738F64421E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ac7999f6-dd20-429f-9c50-d27a0c8de317"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>